--- a/execl学习积累.xlsx
+++ b/execl学习积累.xlsx
@@ -1,26 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofuqiang/Desktop/code-workspae/steam-study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AAF9D50-3862-8546-A6DD-C886A0333064}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="30623" windowHeight="14255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+  <si>
+    <t>1、if用法</t>
+  </si>
   <si>
     <t>姓名</t>
   </si>
@@ -64,37 +61,28 @@
     <t>IF(判断的条件,符合条件时的结果,不符合条件时的结果)</t>
   </si>
   <si>
+    <t>2、自动填充</t>
+  </si>
+  <si>
     <t>按住ctrl键不放按D键，自动填充上一行的内容。</t>
   </si>
   <si>
     <t>按住ctrl键不放按R键，自动填充左侧的内容。</t>
   </si>
   <si>
-    <t>1、if用法</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3、快速填充</t>
   </si>
   <si>
-    <t>3、快速填充</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>妈15237073436</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>我17301630597</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>你18738087336</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>姐15137031396</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>使用Excel2013及以上版本的同学，还可以使用快速填充功能。</t>
@@ -103,60 +91,57 @@
     <t>要从字符串中提取有规律的部分字符时，只要输入首个要提取的字符，然后按住ctrl键不放按E键，Excel就会自动按照已有的例子找出规律进行填充。</t>
   </si>
   <si>
-    <t>2、自动填充</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <t>4、多个单元格同时输入</t>
+  </si>
+  <si>
+    <t>选中所有单元格，在编辑栏输入数据，按下Ctrl键的同时，按Enter键。</t>
   </si>
   <si>
     <t>美国</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、多个单元格同时输入</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>选中所有单元格，在编辑栏输入数据，按下Ctrl键的同时，按Enter键。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF555555"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF555555"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
       <color rgb="FF555555"/>
       <name val="Microsoft YaHei"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -164,35 +149,355 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="1"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="14"/>
-      <color rgb="FF555555"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -215,52 +520,335 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -518,352 +1106,352 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E46" sqref="E45:E46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
-      <c r="A1" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="17.4" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C3" s="1" t="str">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.8</v>
+      </c>
+      <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=9,"合格","不合格")</f>
         <v>合格</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="C4" s="1" t="str">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.7</v>
+      </c>
+      <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>9.3000000000000007</v>
-      </c>
-      <c r="C5" s="1" t="str">
+    <row r="5" spans="1:3">
+      <c r="A5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.3</v>
+      </c>
+      <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>合格</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
         <v>5.6</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2">
         <v>6.7</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2">
         <v>8.9</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2">
         <v>3.6</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>9.9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="2" t="str">
         <f t="shared" si="0"/>
         <v>合格</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.4" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17">
-      <c r="A13" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="23">
-      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23">
-      <c r="A15" s="4" t="s">
+    <row r="13" ht="17.4" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="17">
-      <c r="A16" s="8" t="s">
+    <row r="14" ht="22.2" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" ht="22.2" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" ht="17.4" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B18">
         <v>15237073436</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B19">
         <v>17301630597</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B20">
         <v>18738087336</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B21">
         <v>15137031396</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="23">
-      <c r="A22" s="4" t="s">
+    <row r="22" ht="22.2" spans="1:1">
+      <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="23">
-      <c r="A23" s="4" t="s">
+    <row r="23" ht="22.2" spans="1:1">
+      <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="17">
-      <c r="A24" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="23">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
+    <row r="24" ht="17.4" spans="1:1">
+      <c r="A24" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="22.2" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>26</v>
+      <c r="A26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>26</v>
+      <c r="A27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>26</v>
+      <c r="A28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>26</v>
+      <c r="A29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>26</v>
+      <c r="A30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>26</v>
+      <c r="A31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>26</v>
+      <c r="A32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>26</v>
+      <c r="A33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>26</v>
+      <c r="A34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>26</v>
+      <c r="A35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>26</v>
+      <c r="A36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/execl学习积累.xlsx
+++ b/execl学习积累.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofuqiang/Desktop/code-workspae/steam-study/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62421BFF-69F7-1B4B-9EC6-9D54CE194577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="30623" windowHeight="14255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>1、if用法</t>
   </si>
@@ -103,14 +109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,345 +159,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -520,251 +196,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,61 +228,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1106,30 +496,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E46" sqref="E45:E46"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.4" spans="1:1">
+    <row r="1" spans="1:5" ht="17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1140,43 +530,43 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>9.8</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="C3" s="2" t="str">
         <f t="shared" ref="C3:C10" si="0">IF(B3&gt;=9,"合格","不合格")</f>
         <v>合格</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>8.7</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C4" s="2" t="str">
         <f t="shared" si="0"/>
         <v>不合格</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="C5" s="2" t="str">
         <f t="shared" si="0"/>
         <v>合格</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -1188,7 +578,7 @@
         <v>不合格</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +590,7 @@
         <v>不合格</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1212,7 +602,7 @@
         <v>不合格</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +614,7 @@
         <v>不合格</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:5">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1244,32 +634,32 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" ht="17.4" spans="1:1">
+    <row r="12" spans="1:5" ht="18">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="17.4" spans="1:1">
+    <row r="13" spans="1:5" ht="17">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" ht="22.2" spans="1:1">
+    <row r="14" spans="1:5" ht="23">
       <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" ht="22.2" spans="1:1">
+    <row r="15" spans="1:5" ht="23">
       <c r="A15" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" ht="17.4" spans="1:1">
+    <row r="16" spans="1:5" ht="17">
       <c r="A16" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1277,7 +667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
@@ -1285,7 +675,7 @@
         <v>15237073436</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
@@ -1293,7 +683,7 @@
         <v>17301630597</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +691,7 @@
         <v>18738087336</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
@@ -1309,22 +699,22 @@
         <v>15137031396</v>
       </c>
     </row>
-    <row r="22" ht="22.2" spans="1:1">
+    <row r="22" spans="1:3" ht="23">
       <c r="A22" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" ht="22.2" spans="1:1">
+    <row r="23" spans="1:3" ht="23">
       <c r="A23" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="24" ht="17.4" spans="1:1">
+    <row r="24" spans="1:3" ht="17">
       <c r="A24" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" ht="22.2" spans="1:1">
+    <row r="25" spans="1:3" ht="23">
       <c r="A25" s="5" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +841,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/execl学习积累.xlsx
+++ b/execl学习积累.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhaofuqiang/Desktop/code-workspae/steam-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62421BFF-69F7-1B4B-9EC6-9D54CE194577}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26E567A-0D43-004F-A680-54D1A2A6D133}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="45">
   <si>
     <t>1、if用法</t>
   </si>
@@ -104,13 +104,68 @@
   </si>
   <si>
     <t>美国</t>
+  </si>
+  <si>
+    <t>北京(2222)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>南京(3333)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州(4444)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>上海(1112)</t>
+  </si>
+  <si>
+    <t>北京(2223)</t>
+  </si>
+  <si>
+    <t>南京(3334)</t>
+  </si>
+  <si>
+    <t>广州(4445)</t>
+  </si>
+  <si>
+    <t>上海(1113)</t>
+  </si>
+  <si>
+    <t>北京(2224)</t>
+  </si>
+  <si>
+    <t>上海</t>
+  </si>
+  <si>
+    <t>北京</t>
+  </si>
+  <si>
+    <t>南京</t>
+  </si>
+  <si>
+    <t>广州</t>
+  </si>
+  <si>
+    <t>在替换对话框中，查找内容输入（*）。</t>
+  </si>
+  <si>
+    <t>这里的星号是通配符的意思，就像扑克中的大王，可以表示任意多个字符。除此之外，还有一个小王，就是半角的问号?，他的作用是表示任意一个字符。</t>
+  </si>
+  <si>
+    <t>在“替换为”编辑框中不输入任何内容，直接点全部替换就OK了。</t>
+  </si>
+  <si>
+    <t>5、字符截取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +219,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF555555"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -202,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -225,6 +303,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,16 +592,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="29.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17">
@@ -840,6 +931,141 @@
         <v>27</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="17">
+      <c r="A38" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="23">
+      <c r="A39" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="23">
+      <c r="A40" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="23">
+      <c r="A41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
